--- a/regionseng/9/trade/trade.xlsx
+++ b/regionseng/9/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="5385" windowWidth="23070" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,13 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +139,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +183,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,13 +210,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -531,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -544,7 +534,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -563,8 +553,10 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2006</v>
@@ -611,8 +603,14 @@
       <c r="P3" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -650,7 +648,7 @@
         <v>513.70000000000005</v>
       </c>
       <c r="M4" s="5">
-        <v>579.4</v>
+        <v>579.44473000000005</v>
       </c>
       <c r="N4" s="5">
         <v>671.7</v>
@@ -658,11 +656,17 @@
       <c r="O4" s="5">
         <v>858.3</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="5">
         <v>1066.0999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="5">
+        <v>1045.8</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1091.4000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -700,7 +704,7 @@
         <v>69</v>
       </c>
       <c r="M5" s="5">
-        <v>91</v>
+        <v>90.973510000000005</v>
       </c>
       <c r="N5" s="5">
         <v>89.3</v>
@@ -708,11 +712,17 @@
       <c r="O5" s="5">
         <v>139.5</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="5">
         <v>160.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5">
+        <v>162.1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -750,7 +760,7 @@
         <v>6450</v>
       </c>
       <c r="M6" s="6">
-        <v>6808</v>
+        <v>6808.0188900000003</v>
       </c>
       <c r="N6" s="6">
         <v>7119</v>
@@ -758,11 +768,17 @@
       <c r="O6" s="6">
         <v>7585</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="6">
         <v>6502</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="6">
+        <v>7086</v>
+      </c>
+      <c r="R6" s="6">
+        <v>7103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,7 +816,7 @@
         <v>3362</v>
       </c>
       <c r="M7" s="6">
-        <v>3971</v>
+        <v>3970.8279400000001</v>
       </c>
       <c r="N7" s="6">
         <v>3950</v>
@@ -808,11 +824,17 @@
       <c r="O7" s="6">
         <v>4415</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="6">
         <v>4029</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="6">
+        <v>4226</v>
+      </c>
+      <c r="R7" s="6">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,19 +872,25 @@
         <v>393</v>
       </c>
       <c r="M8" s="5">
-        <v>446.4</v>
+        <v>401.75942500000002</v>
       </c>
       <c r="N8" s="5">
-        <v>541.29999999999995</v>
+        <v>452.1</v>
       </c>
       <c r="O8" s="5">
         <v>475.4</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="5">
         <v>585.79999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5">
+        <v>591.70000000000005</v>
+      </c>
+      <c r="R8" s="5">
+        <v>670.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -900,7 +928,7 @@
         <v>23.1</v>
       </c>
       <c r="M9" s="5">
-        <v>17.100000000000001</v>
+        <v>17.139569999999999</v>
       </c>
       <c r="N9" s="5">
         <v>22.9</v>
@@ -908,11 +936,17 @@
       <c r="O9" s="5">
         <v>37.200000000000003</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="5">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R9" s="5">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -950,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="M10" s="5">
-        <v>19.100000000000001</v>
+        <v>19.143820000000002</v>
       </c>
       <c r="N10" s="5">
         <v>21.4</v>
@@ -958,11 +992,17 @@
       <c r="O10" s="5">
         <v>25.4</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="5">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1040,7 @@
         <v>45.9</v>
       </c>
       <c r="M11" s="5">
-        <v>73.8</v>
+        <v>73.834180000000003</v>
       </c>
       <c r="N11" s="5">
         <v>66.400000000000006</v>
@@ -1008,11 +1048,17 @@
       <c r="O11" s="5">
         <v>102.3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="5">
         <v>128.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="R11" s="5">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1096,7 @@
         <v>8.4</v>
       </c>
       <c r="M12" s="5">
-        <v>2.1</v>
+        <v>2.1341399999999999</v>
       </c>
       <c r="N12" s="5">
         <v>2.8</v>
@@ -1058,11 +1104,17 @@
       <c r="O12" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="5">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1152,7 @@
         <v>465.4</v>
       </c>
       <c r="M13" s="5">
-        <v>520.5</v>
+        <v>520.4588</v>
       </c>
       <c r="N13" s="5">
         <v>637.6</v>
@@ -1108,11 +1160,17 @@
       <c r="O13" s="5">
         <v>791.7</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="5">
         <v>963.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5">
+        <v>951.9</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1007.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1208,7 @@
         <v>444.8</v>
       </c>
       <c r="M14" s="5">
-        <v>505.1</v>
+        <v>505.09197999999998</v>
       </c>
       <c r="N14" s="5">
         <v>615.9</v>
@@ -1158,11 +1216,17 @@
       <c r="O14" s="5">
         <v>755.7</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="5">
         <v>934.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75">
+      <c r="Q14" s="5">
+        <v>920.3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>967.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1187,9 +1251,6 @@
       <c r="A32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/regionseng/9/trade/trade.xlsx
+++ b/regionseng/9/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,10 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -521,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -534,7 +531,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -554,9 +551,10 @@
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2006</v>
@@ -609,8 +607,11 @@
       <c r="R3" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -665,8 +666,11 @@
       <c r="R4" s="5">
         <v>1091.4000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5">
+        <v>1124.4000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -721,8 +725,11 @@
       <c r="R5" s="5">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5">
+        <v>170.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -777,8 +784,11 @@
       <c r="R6" s="6">
         <v>7103</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="6">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="R7" s="6">
         <v>4338</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="6">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="R8" s="5">
         <v>670.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5">
+        <v>650.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -945,8 +961,11 @@
       <c r="R9" s="5">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1001,8 +1020,11 @@
       <c r="R10" s="5">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="R11" s="5">
         <v>123.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1113,8 +1138,11 @@
       <c r="R12" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1169,8 +1197,11 @@
       <c r="R13" s="5">
         <v>1007.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1225,8 +1256,11 @@
       <c r="R14" s="5">
         <v>967.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
+      <c r="S14" s="5">
+        <v>981.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1251,6 +1285,9 @@
       <c r="A32" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
